--- a/Data/Excel/nutrients_excelfile_cleaneddata.xlsx
+++ b/Data/Excel/nutrients_excelfile_cleaneddata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deliastorch/Documents/GitHub/ElmFoodProject/Data/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE1F5DC-14C8-E84F-AAB7-5554EE5B0F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE96140-4C16-444A-81F3-3A892B539900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{81BDC743-CA93-DD43-9BBC-17624F1FA538}"/>
   </bookViews>
@@ -1408,7 +1408,7 @@
   <dimension ref="A1:N280"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
